--- a/vysledky.xlsx
+++ b/vysledky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C984DC0A-EF43-4501-9C1E-B3A0E6AA32C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4FF730-66AC-4697-9D93-14BF42975593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5BF42C12-3D74-4E3F-97AA-931C09EEF092}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -72,10 +72,13 @@
     <t>OpenAI TTS</t>
   </si>
   <si>
-    <t>ElevenLabs</t>
-  </si>
-  <si>
     <t>4000 znaků</t>
+  </si>
+  <si>
+    <t>ElevenLabs_multi_lang_model_v2</t>
+  </si>
+  <si>
+    <t>ElevenLabs_turbo_v2.5</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,21 +548,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98443CB4-202C-44CF-A435-05F8FEFFD5A0}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -590,7 +589,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -602,12 +612,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,15 +756,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF89A48-4643-435B-AA6A-F7824E335399}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{916D7306-F235-4C1F-B079-2795BA394E9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3ece457d-738e-4caf-9863-641200525084"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -781,17 +799,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{916D7306-F235-4C1F-B079-2795BA394E9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF89A48-4643-435B-AA6A-F7824E335399}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3ece457d-738e-4caf-9863-641200525084"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>